--- a/Code/Results/Cases/Case_9_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010209762445157</v>
+        <v>1.009666074581982</v>
       </c>
       <c r="D2">
-        <v>1.031642045781263</v>
+        <v>1.030502802693246</v>
       </c>
       <c r="E2">
-        <v>1.015272087884024</v>
+        <v>1.014810060991423</v>
       </c>
       <c r="F2">
-        <v>1.034794925649742</v>
+        <v>1.034022496594473</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047375906112011</v>
+        <v>1.046904142844109</v>
       </c>
       <c r="J2">
-        <v>1.032089331305776</v>
+        <v>1.031561469280914</v>
       </c>
       <c r="K2">
-        <v>1.042677478292043</v>
+        <v>1.04155293204101</v>
       </c>
       <c r="L2">
-        <v>1.026522680699654</v>
+        <v>1.026066853056402</v>
       </c>
       <c r="M2">
-        <v>1.045789895186436</v>
+        <v>1.045027350694777</v>
       </c>
       <c r="N2">
-        <v>1.014552036633543</v>
+        <v>1.015538437218355</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044812008408244</v>
+        <v>1.044208508903451</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041246956343587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04046055414718</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023065814325589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013449302699729</v>
+        <v>1.012800840320029</v>
       </c>
       <c r="D3">
-        <v>1.033834667020661</v>
+        <v>1.032551586688432</v>
       </c>
       <c r="E3">
-        <v>1.017779639358499</v>
+        <v>1.01722533950002</v>
       </c>
       <c r="F3">
-        <v>1.037168839291666</v>
+        <v>1.036293233357148</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048059023836576</v>
+        <v>1.047515980265151</v>
       </c>
       <c r="J3">
-        <v>1.033579922014063</v>
+        <v>1.032948521774049</v>
       </c>
       <c r="K3">
-        <v>1.044052183610769</v>
+        <v>1.04278423948394</v>
       </c>
       <c r="L3">
-        <v>1.028189970447142</v>
+        <v>1.027642462666979</v>
       </c>
       <c r="M3">
-        <v>1.047347240031459</v>
+        <v>1.046481876378617</v>
       </c>
       <c r="N3">
-        <v>1.015057827943752</v>
+        <v>1.015911905015911</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046044534084509</v>
+        <v>1.04535966167052</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042216329059128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041328258362809</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023299542789227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015513251597327</v>
+        <v>1.014798681999342</v>
       </c>
       <c r="D4">
-        <v>1.035235827490618</v>
+        <v>1.033861512404168</v>
       </c>
       <c r="E4">
-        <v>1.019382837643257</v>
+        <v>1.018770256019997</v>
       </c>
       <c r="F4">
-        <v>1.038688022172498</v>
+        <v>1.037747080888361</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048487207913879</v>
+        <v>1.047898938114164</v>
       </c>
       <c r="J4">
-        <v>1.034528282568882</v>
+        <v>1.033831264646323</v>
       </c>
       <c r="K4">
-        <v>1.044926802776766</v>
+        <v>1.043567739047458</v>
       </c>
       <c r="L4">
-        <v>1.02925282458119</v>
+        <v>1.028647298263268</v>
       </c>
       <c r="M4">
-        <v>1.048340905711026</v>
+        <v>1.047410315962605</v>
       </c>
       <c r="N4">
-        <v>1.015379591983095</v>
+        <v>1.016149601523652</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.0468309474378</v>
+        <v>1.046094454073047</v>
       </c>
       <c r="Q4">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R4">
-        <v>1.042835646920308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041883230487325</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023446042231396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016376163309278</v>
+        <v>1.015634088278741</v>
       </c>
       <c r="D5">
-        <v>1.035824637220018</v>
+        <v>1.034412311205467</v>
       </c>
       <c r="E5">
-        <v>1.020054774021814</v>
+        <v>1.019417927287457</v>
       </c>
       <c r="F5">
-        <v>1.039325508832834</v>
+        <v>1.038357362418712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048665945562196</v>
+        <v>1.048058812863409</v>
       </c>
       <c r="J5">
-        <v>1.034925867681678</v>
+        <v>1.03420148458238</v>
       </c>
       <c r="K5">
-        <v>1.0452948363096</v>
+        <v>1.043897773016105</v>
       </c>
       <c r="L5">
-        <v>1.029698346687111</v>
+        <v>1.029068640151953</v>
       </c>
       <c r="M5">
-        <v>1.048758093801799</v>
+        <v>1.047800318276323</v>
       </c>
       <c r="N5">
-        <v>1.015514715857981</v>
+        <v>1.016249480248468</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047161120899244</v>
+        <v>1.046403112319287</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043103015935341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042124441685579</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023507688917654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0165239654834</v>
+        <v>1.015777168696851</v>
       </c>
       <c r="D6">
-        <v>1.035927996600033</v>
+        <v>1.034509211458361</v>
       </c>
       <c r="E6">
-        <v>1.020170350520419</v>
+        <v>1.019529333814404</v>
       </c>
       <c r="F6">
-        <v>1.039435695209154</v>
+        <v>1.038462915693934</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048698205955296</v>
+        <v>1.048087845981117</v>
       </c>
       <c r="J6">
-        <v>1.034995675843299</v>
+        <v>1.03426659355544</v>
       </c>
       <c r="K6">
-        <v>1.045361111652539</v>
+        <v>1.043957589918922</v>
       </c>
       <c r="L6">
-        <v>1.029775918250172</v>
+        <v>1.029142055709659</v>
       </c>
       <c r="M6">
-        <v>1.048831293134219</v>
+        <v>1.047868887030026</v>
       </c>
       <c r="N6">
-        <v>1.01553873156062</v>
+        <v>1.016267272214584</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047219052731773</v>
+        <v>1.046457379448747</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043158585694423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042176313010502</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023519410396095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015533832171218</v>
+        <v>1.014824933582843</v>
       </c>
       <c r="D7">
-        <v>1.035256419984449</v>
+        <v>1.033885921370715</v>
       </c>
       <c r="E7">
-        <v>1.019399960389639</v>
+        <v>1.018792446881838</v>
       </c>
       <c r="F7">
-        <v>1.038705630166383</v>
+        <v>1.037767958607296</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048496169419984</v>
+        <v>1.047910515208906</v>
       </c>
       <c r="J7">
-        <v>1.034542409614194</v>
+        <v>1.033850915978313</v>
       </c>
       <c r="K7">
-        <v>1.044944302062108</v>
+        <v>1.043589006574118</v>
       </c>
       <c r="L7">
-        <v>1.029266825463465</v>
+        <v>1.028666306216706</v>
       </c>
       <c r="M7">
-        <v>1.048355467816943</v>
+        <v>1.0474281079208</v>
       </c>
       <c r="N7">
-        <v>1.015385185597965</v>
+        <v>1.016181275913341</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046842472268113</v>
+        <v>1.046108535106723</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042868048687303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04192029398615</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023452151544085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011322689042697</v>
+        <v>1.01076240183486</v>
       </c>
       <c r="D8">
-        <v>1.032402523034884</v>
+        <v>1.031228096319956</v>
       </c>
       <c r="E8">
-        <v>1.016133801147819</v>
+        <v>1.015657438403489</v>
       </c>
       <c r="F8">
-        <v>1.035612043149901</v>
+        <v>1.034816041150374</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047617840994923</v>
+        <v>1.047130986730473</v>
       </c>
       <c r="J8">
-        <v>1.032607465963425</v>
+        <v>1.032062950175031</v>
       </c>
       <c r="K8">
-        <v>1.043160765177249</v>
+        <v>1.042001046626844</v>
       </c>
       <c r="L8">
-        <v>1.027099576195627</v>
+        <v>1.026629415642628</v>
       </c>
       <c r="M8">
-        <v>1.046330302165628</v>
+        <v>1.04554418768155</v>
       </c>
       <c r="N8">
-        <v>1.014728894432053</v>
+        <v>1.015752553818206</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045239701635557</v>
+        <v>1.04461754852072</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041611496705295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040802490765023</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02315501502715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003631410049856</v>
+        <v>1.003326823852073</v>
       </c>
       <c r="D9">
-        <v>1.027214353754528</v>
+        <v>1.026385872422729</v>
       </c>
       <c r="E9">
-        <v>1.010212055285789</v>
+        <v>1.009960489647174</v>
       </c>
       <c r="F9">
-        <v>1.03001256161373</v>
+        <v>1.02946568489073</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045951843337614</v>
+        <v>1.045636752748232</v>
       </c>
       <c r="J9">
-        <v>1.029056582363322</v>
+        <v>1.028762647890558</v>
       </c>
       <c r="K9">
-        <v>1.039880805413931</v>
+        <v>1.039064886199646</v>
       </c>
       <c r="L9">
-        <v>1.023141593645088</v>
+        <v>1.022894005775463</v>
       </c>
       <c r="M9">
-        <v>1.042636774735163</v>
+        <v>1.04209813004938</v>
       </c>
       <c r="N9">
-        <v>1.013522950076692</v>
+        <v>1.014872799526308</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042316535528258</v>
+        <v>1.041890235320045</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039289203611632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038723002448567</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022583791987234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9983672028255104</v>
+        <v>0.9982666690819528</v>
       </c>
       <c r="D10">
-        <v>1.023715483582993</v>
+        <v>1.02314295977774</v>
       </c>
       <c r="E10">
-        <v>1.006197725287516</v>
+        <v>1.006125308138409</v>
       </c>
       <c r="F10">
-        <v>1.026300454804764</v>
+        <v>1.025940965717009</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044797992434639</v>
+        <v>1.044612917796038</v>
       </c>
       <c r="J10">
-        <v>1.026645752942754</v>
+        <v>1.026549227004793</v>
       </c>
       <c r="K10">
-        <v>1.037669354712493</v>
+        <v>1.037106565922632</v>
       </c>
       <c r="L10">
-        <v>1.020455972336173</v>
+        <v>1.020384842002503</v>
       </c>
       <c r="M10">
-        <v>1.040210546350352</v>
+        <v>1.039857128601033</v>
       </c>
       <c r="N10">
-        <v>1.012708098258772</v>
+        <v>1.01439593855586</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040447656470197</v>
+        <v>1.040167967302727</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037742338655996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037356790914711</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02220012505424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9964212085059536</v>
+        <v>0.9964135972974547</v>
       </c>
       <c r="D11">
-        <v>1.022633711168733</v>
+        <v>1.022156922055972</v>
       </c>
       <c r="E11">
-        <v>1.004772644794374</v>
+        <v>1.004780991074131</v>
       </c>
       <c r="F11">
-        <v>1.025585010779329</v>
+        <v>1.025298885287766</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04452683876977</v>
+        <v>1.044392170829969</v>
       </c>
       <c r="J11">
-        <v>1.025943631006311</v>
+        <v>1.025936339684001</v>
       </c>
       <c r="K11">
-        <v>1.0371410495255</v>
+        <v>1.036672747951886</v>
       </c>
       <c r="L11">
-        <v>1.019605113809164</v>
+        <v>1.019613304636835</v>
       </c>
       <c r="M11">
-        <v>1.040040039438362</v>
+        <v>1.039758968222617</v>
       </c>
       <c r="N11">
-        <v>1.012503234416843</v>
+        <v>1.014481796974481</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040747788018284</v>
+        <v>1.040525464096037</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037401546281337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037086015904618</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022163075597889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.995823912645315</v>
+        <v>0.9958385272292061</v>
       </c>
       <c r="D12">
-        <v>1.022384220071115</v>
+        <v>1.021926979972428</v>
       </c>
       <c r="E12">
-        <v>1.004358656472075</v>
+        <v>1.004385448616932</v>
       </c>
       <c r="F12">
-        <v>1.025640019098184</v>
+        <v>1.025369578108343</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044508824883629</v>
+        <v>1.044383610180974</v>
       </c>
       <c r="J12">
-        <v>1.025806069620233</v>
+        <v>1.025820058277887</v>
       </c>
       <c r="K12">
-        <v>1.037094781733882</v>
+        <v>1.03664581479135</v>
       </c>
       <c r="L12">
-        <v>1.019402825219828</v>
+        <v>1.019429109894445</v>
       </c>
       <c r="M12">
-        <v>1.04029194841991</v>
+        <v>1.040026359268305</v>
       </c>
       <c r="N12">
-        <v>1.012482528948373</v>
+        <v>1.014569621546989</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041272591980007</v>
+        <v>1.041062584941756</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037368833658112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037066973787604</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022191778184118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9962360644676898</v>
+        <v>0.9962105194946436</v>
       </c>
       <c r="D13">
-        <v>1.022775219183653</v>
+        <v>1.022273126467864</v>
       </c>
       <c r="E13">
-        <v>1.004703297959554</v>
+        <v>1.004693534952484</v>
       </c>
       <c r="F13">
-        <v>1.026315035277293</v>
+        <v>1.026011144578883</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.0446968962578</v>
+        <v>1.044545817716361</v>
       </c>
       <c r="J13">
-        <v>1.0261073722867</v>
+        <v>1.026082916146606</v>
       </c>
       <c r="K13">
-        <v>1.037436099368573</v>
+        <v>1.036943052539318</v>
       </c>
       <c r="L13">
-        <v>1.019697208445325</v>
+        <v>1.019687629582291</v>
       </c>
       <c r="M13">
-        <v>1.040912466925093</v>
+        <v>1.040614000932388</v>
       </c>
       <c r="N13">
-        <v>1.012607830696642</v>
+        <v>1.014633529650808</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042039226257268</v>
+        <v>1.041803281843792</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03760767068111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03727439859582</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022278016899002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9969824911937545</v>
+        <v>0.9969012708915627</v>
       </c>
       <c r="D14">
-        <v>1.023339839076317</v>
+        <v>1.02277781387814</v>
       </c>
       <c r="E14">
-        <v>1.005288751394708</v>
+        <v>1.005229210240969</v>
       </c>
       <c r="F14">
-        <v>1.027067883441309</v>
+        <v>1.026718859557912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044921909215737</v>
+        <v>1.044737233494722</v>
       </c>
       <c r="J14">
-        <v>1.026517177417344</v>
+        <v>1.026439370431469</v>
       </c>
       <c r="K14">
-        <v>1.037851036224498</v>
+        <v>1.037299012081512</v>
       </c>
       <c r="L14">
-        <v>1.0201284530206</v>
+        <v>1.020070020904005</v>
       </c>
       <c r="M14">
-        <v>1.041513100487743</v>
+        <v>1.041170227381017</v>
       </c>
       <c r="N14">
-        <v>1.012761815962532</v>
+        <v>1.01466878827892</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042686952840894</v>
+        <v>1.042415940024186</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037902462397279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037527625205215</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02236482216331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9973887340432065</v>
+        <v>0.9972806829406524</v>
       </c>
       <c r="D15">
-        <v>1.023625401816201</v>
+        <v>1.023034775488031</v>
       </c>
       <c r="E15">
-        <v>1.00560123995231</v>
+        <v>1.005517931356396</v>
       </c>
       <c r="F15">
-        <v>1.027402671753523</v>
+        <v>1.027032038458379</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04502606758222</v>
+        <v>1.044825647708851</v>
       </c>
       <c r="J15">
-        <v>1.026718800541545</v>
+        <v>1.026615251325375</v>
       </c>
       <c r="K15">
-        <v>1.038045587238292</v>
+        <v>1.037465392072412</v>
       </c>
       <c r="L15">
-        <v>1.020346947641133</v>
+        <v>1.020265178946935</v>
       </c>
       <c r="M15">
-        <v>1.041756513459213</v>
+        <v>1.041392361971278</v>
       </c>
       <c r="N15">
-        <v>1.012833522692174</v>
+        <v>1.014676861354744</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042916804807483</v>
+        <v>1.042628980752781</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038045865483953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037651679075505</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022401304737206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9995342128145693</v>
+        <v>0.9993054253046835</v>
       </c>
       <c r="D16">
-        <v>1.025035495418808</v>
+        <v>1.024314504116071</v>
       </c>
       <c r="E16">
-        <v>1.007226035407535</v>
+        <v>1.007036811874177</v>
       </c>
       <c r="F16">
-        <v>1.028876793205515</v>
+        <v>1.028407825687913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045492378598048</v>
+        <v>1.04522223440859</v>
       </c>
       <c r="J16">
-        <v>1.02768947879791</v>
+        <v>1.0274697543667</v>
       </c>
       <c r="K16">
-        <v>1.038931579792215</v>
+        <v>1.038222773879258</v>
       </c>
       <c r="L16">
-        <v>1.021429737736498</v>
+        <v>1.021243858369817</v>
       </c>
       <c r="M16">
-        <v>1.04270832724418</v>
+        <v>1.042247207092063</v>
       </c>
       <c r="N16">
-        <v>1.013157390845404</v>
+        <v>1.014697323030853</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043630481691755</v>
+        <v>1.04326600364371</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038675446357192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038190627418798</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022545407681893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000792035854164</v>
+        <v>1.000506763386706</v>
       </c>
       <c r="D17">
-        <v>1.025823595687926</v>
+        <v>1.025038989195512</v>
       </c>
       <c r="E17">
-        <v>1.008169534833706</v>
+        <v>1.007931177185182</v>
       </c>
       <c r="F17">
-        <v>1.02960970177321</v>
+        <v>1.029093105351127</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045730645263678</v>
+        <v>1.045427719753661</v>
       </c>
       <c r="J17">
-        <v>1.028219811280967</v>
+        <v>1.027945481344609</v>
       </c>
       <c r="K17">
-        <v>1.039393502773757</v>
+        <v>1.038621789616705</v>
       </c>
       <c r="L17">
-        <v>1.022035822882211</v>
+        <v>1.021801558665726</v>
       </c>
       <c r="M17">
-        <v>1.043117747072773</v>
+        <v>1.042609556948255</v>
       </c>
       <c r="N17">
-        <v>1.013325203615076</v>
+        <v>1.01472321221905</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043825344510958</v>
+        <v>1.043423621637585</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039004621073561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038475572314338</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022611083815085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001391895414151</v>
+        <v>1.001092469987685</v>
       </c>
       <c r="D18">
-        <v>1.02612442402313</v>
+        <v>1.025322940240779</v>
       </c>
       <c r="E18">
-        <v>1.00860061869957</v>
+        <v>1.008350601861496</v>
       </c>
       <c r="F18">
-        <v>1.029720975205308</v>
+        <v>1.02919169886472</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045782982487472</v>
+        <v>1.045472704584004</v>
       </c>
       <c r="J18">
-        <v>1.028402421551093</v>
+        <v>1.028114268559435</v>
       </c>
       <c r="K18">
-        <v>1.039506953986575</v>
+        <v>1.038718428340849</v>
       </c>
       <c r="L18">
-        <v>1.022272527504042</v>
+        <v>1.022026733200141</v>
       </c>
       <c r="M18">
-        <v>1.043045675721139</v>
+        <v>1.042524877162309</v>
       </c>
       <c r="N18">
-        <v>1.013367086668627</v>
+        <v>1.01471378658444</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04353125578899</v>
+        <v>1.043119480552632</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039073241040716</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038531171366614</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022606155240618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001403427153136</v>
+        <v>1.001122665602742</v>
       </c>
       <c r="D19">
-        <v>1.025995880473155</v>
+        <v>1.025216040183373</v>
       </c>
       <c r="E19">
-        <v>1.008574373323836</v>
+        <v>1.008341699145385</v>
       </c>
       <c r="F19">
-        <v>1.029269888352349</v>
+        <v>1.028756363844792</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045675546961297</v>
+        <v>1.045378320409192</v>
       </c>
       <c r="J19">
-        <v>1.02827920150952</v>
+        <v>1.028008947347434</v>
       </c>
       <c r="K19">
-        <v>1.039318265749915</v>
+        <v>1.038550970172551</v>
       </c>
       <c r="L19">
-        <v>1.022182966820501</v>
+        <v>1.021954201404557</v>
       </c>
       <c r="M19">
-        <v>1.042539872943186</v>
+        <v>1.042034539156111</v>
       </c>
       <c r="N19">
-        <v>1.013301026973152</v>
+        <v>1.014656982050337</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042806670324329</v>
+        <v>1.042406992545989</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038946205585961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038419771340557</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022541465836193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9997533891260467</v>
+        <v>0.9995806487826586</v>
       </c>
       <c r="D20">
-        <v>1.024652398772063</v>
+        <v>1.023999355919734</v>
       </c>
       <c r="E20">
-        <v>1.007255912272447</v>
+        <v>1.007119748804228</v>
       </c>
       <c r="F20">
-        <v>1.027285494162911</v>
+        <v>1.026865541888913</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045116854374422</v>
+        <v>1.044888614626615</v>
       </c>
       <c r="J20">
-        <v>1.027293820519843</v>
+        <v>1.027127745292282</v>
       </c>
       <c r="K20">
-        <v>1.038275187236209</v>
+        <v>1.037632936142607</v>
       </c>
       <c r="L20">
-        <v>1.021172363930418</v>
+        <v>1.021038550736826</v>
       </c>
       <c r="M20">
-        <v>1.040864948795077</v>
+        <v>1.040451888676631</v>
       </c>
       <c r="N20">
-        <v>1.012929658277316</v>
+        <v>1.014454983218846</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040955021630714</v>
+        <v>1.040628128498292</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038212621340925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037774989009634</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022306559091067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9957383532043915</v>
+        <v>0.995814327008301</v>
       </c>
       <c r="D21">
-        <v>1.02195062177369</v>
+        <v>1.021562667029631</v>
       </c>
       <c r="E21">
-        <v>1.004195833794041</v>
+        <v>1.004279859247428</v>
       </c>
       <c r="F21">
-        <v>1.024340733175927</v>
+        <v>1.024121834076829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044192053128477</v>
+        <v>1.044109089792427</v>
       </c>
       <c r="J21">
-        <v>1.025415339060911</v>
+        <v>1.025488097912217</v>
       </c>
       <c r="K21">
-        <v>1.036527733755504</v>
+        <v>1.036146728006037</v>
       </c>
       <c r="L21">
-        <v>1.019098148459291</v>
+        <v>1.01918059951753</v>
       </c>
       <c r="M21">
-        <v>1.038875184491033</v>
+        <v>1.038660181730743</v>
       </c>
       <c r="N21">
-        <v>1.01228863021269</v>
+        <v>1.014426876065203</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039339490405743</v>
+        <v>1.039169329841772</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036980327808188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036727732910148</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022010138164864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9931842614447325</v>
+        <v>0.9934167254899695</v>
       </c>
       <c r="D22">
-        <v>1.020243989795439</v>
+        <v>1.020022788440547</v>
       </c>
       <c r="E22">
-        <v>1.002258303704793</v>
+        <v>1.002480897753354</v>
       </c>
       <c r="F22">
-        <v>1.022514748810057</v>
+        <v>1.022422456328135</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043602176504018</v>
+        <v>1.043610638232241</v>
       </c>
       <c r="J22">
-        <v>1.024226546581112</v>
+        <v>1.024448609359416</v>
       </c>
       <c r="K22">
-        <v>1.035424801119022</v>
+        <v>1.035207758820407</v>
       </c>
       <c r="L22">
-        <v>1.017785155515362</v>
+        <v>1.018003367263987</v>
       </c>
       <c r="M22">
-        <v>1.037653000839788</v>
+        <v>1.037562433322532</v>
       </c>
       <c r="N22">
-        <v>1.011883793857615</v>
+        <v>1.014402907461078</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038372211777635</v>
+        <v>1.038300533444094</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036187042394401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03604907688011</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021822097848075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9945338208380519</v>
+        <v>0.9946732454178391</v>
       </c>
       <c r="D23">
-        <v>1.021139389601594</v>
+        <v>1.020822338258456</v>
       </c>
       <c r="E23">
-        <v>1.003280124028159</v>
+        <v>1.003420179547865</v>
       </c>
       <c r="F23">
-        <v>1.023476556254321</v>
+        <v>1.023310921442105</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04391038245466</v>
+        <v>1.043865436234991</v>
       </c>
       <c r="J23">
-        <v>1.024850516939346</v>
+        <v>1.024983883423572</v>
       </c>
       <c r="K23">
-        <v>1.035999996428358</v>
+        <v>1.035688756334696</v>
       </c>
       <c r="L23">
-        <v>1.018475567831599</v>
+        <v>1.018612936795819</v>
       </c>
       <c r="M23">
-        <v>1.038294469612933</v>
+        <v>1.038131852127269</v>
       </c>
       <c r="N23">
-        <v>1.012095414428495</v>
+        <v>1.014371329493273</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038879892626769</v>
+        <v>1.038751191488361</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036584120399817</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036378611411382</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021916290360551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9997697289371997</v>
+        <v>0.9995986194295695</v>
       </c>
       <c r="D24">
-        <v>1.024634525326892</v>
+        <v>1.023983272138844</v>
       </c>
       <c r="E24">
-        <v>1.007261695852881</v>
+        <v>1.00712710446343</v>
       </c>
       <c r="F24">
-        <v>1.027229591088052</v>
+        <v>1.026810969191937</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045098584137053</v>
+        <v>1.04487158688806</v>
       </c>
       <c r="J24">
-        <v>1.027276645838506</v>
+        <v>1.027112128928281</v>
       </c>
       <c r="K24">
-        <v>1.038242414488548</v>
+        <v>1.037601910163934</v>
       </c>
       <c r="L24">
-        <v>1.021162476870867</v>
+        <v>1.021030205592496</v>
       </c>
       <c r="M24">
-        <v>1.040794822997516</v>
+        <v>1.040383063582933</v>
       </c>
       <c r="N24">
-        <v>1.012919672780601</v>
+        <v>1.014443836220017</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040858756421898</v>
+        <v>1.040532876541416</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038162130261949</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037723062276458</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02229396659546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005666041203657</v>
+        <v>1.005285161788871</v>
       </c>
       <c r="D25">
-        <v>1.028592703955016</v>
+        <v>1.027666747434362</v>
       </c>
       <c r="E25">
-        <v>1.011775000202263</v>
+        <v>1.011456290089273</v>
       </c>
       <c r="F25">
-        <v>1.031490997359482</v>
+        <v>1.030873079816969</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046406028410607</v>
+        <v>1.046041476281266</v>
       </c>
       <c r="J25">
-        <v>1.030004213568102</v>
+        <v>1.029635958941663</v>
       </c>
       <c r="K25">
-        <v>1.040762796753894</v>
+        <v>1.039850234640217</v>
       </c>
       <c r="L25">
-        <v>1.024193233628981</v>
+        <v>1.023879327442109</v>
       </c>
       <c r="M25">
-        <v>1.043619361772913</v>
+        <v>1.04301031581905</v>
       </c>
       <c r="N25">
-        <v>1.013846181938751</v>
+        <v>1.015076357551345</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043094184918413</v>
+        <v>1.042612167448163</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039941306847702</v>
+        <v>1.039309576061607</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022740281016166</v>
       </c>
     </row>
   </sheetData>
